--- a/biology/Médecine/Démyélinisation/Démyélinisation.xlsx
+++ b/biology/Médecine/Démyélinisation/Démyélinisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9my%C3%A9linisation</t>
+          <t>Démyélinisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La démyélinisation est la disparition ou la destruction[1] de la gaine de myéline qui entoure et protège les fibres nerveuses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La démyélinisation est la disparition ou la destruction de la gaine de myéline qui entoure et protège les fibres nerveuses.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9my%C3%A9linisation</t>
+          <t>Démyélinisation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle entraîne notamment un ralentissement de la conduction des signaux nerveux, et se traduit par des affections au niveau des sensations, provoque des troubles moteurs ou psychiques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9my%C3%A9linisation</t>
+          <t>Démyélinisation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une démyélinisation peut avoir plusieurs causes, parfois infectieuses, génétiques - c'est le cas des leucodystrophies - ou autoimmunes. Certains produits chimiques, comme les organophosphates utilisés dans certains insecticides ou anti-puces ont également pour effet secondaire une démyélinisation.
-Parmi les maladies qui provoquent une démyélinisation, on peut compter la sclérose en plaques, la maladie de Tay-Sachs[1], la myélite transverse, la maladie de Marchiafava-Bignami, le syndrome de Guillain-Barré et la leucoencéphalopathie multifocale progressive.
-La démyélinisation peut être aussi causée par des traitements médicaux tels que la radiothérapie ou la chimiothérapie[1].
-La démyélinisation est l'un des mécanismes de la polyneuropathie du diabète[2].
+Parmi les maladies qui provoquent une démyélinisation, on peut compter la sclérose en plaques, la maladie de Tay-Sachs, la myélite transverse, la maladie de Marchiafava-Bignami, le syndrome de Guillain-Barré et la leucoencéphalopathie multifocale progressive.
+La démyélinisation peut être aussi causée par des traitements médicaux tels que la radiothérapie ou la chimiothérapie.
+La démyélinisation est l'un des mécanismes de la polyneuropathie du diabète.
 </t>
         </is>
       </c>
